--- a/SchedulingData/dynamic14/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_1.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>249.32</v>
+        <v>221.18</v>
       </c>
       <c r="D2" t="n">
-        <v>289.48</v>
+        <v>267.14</v>
       </c>
       <c r="E2" t="n">
-        <v>12.712</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244.66</v>
+        <v>236.26</v>
       </c>
       <c r="D3" t="n">
-        <v>299.08</v>
+        <v>309.06</v>
       </c>
       <c r="E3" t="n">
-        <v>12.752</v>
+        <v>12.704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226.14</v>
+        <v>267.14</v>
       </c>
       <c r="D4" t="n">
-        <v>297.3</v>
+        <v>307.34</v>
       </c>
       <c r="E4" t="n">
-        <v>14.4</v>
+        <v>13.876</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>239.66</v>
+        <v>223.34</v>
       </c>
       <c r="D5" t="n">
-        <v>309.08</v>
+        <v>282.24</v>
       </c>
       <c r="E5" t="n">
-        <v>11.272</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>258.7</v>
+        <v>210.9</v>
       </c>
       <c r="D6" t="n">
-        <v>302.14</v>
+        <v>268.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.476</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>309.08</v>
+        <v>309.06</v>
       </c>
       <c r="D7" t="n">
-        <v>347.74</v>
+        <v>374.8</v>
       </c>
       <c r="E7" t="n">
-        <v>8.536</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>208.02</v>
+        <v>268.9</v>
       </c>
       <c r="D8" t="n">
-        <v>265.4</v>
+        <v>323.32</v>
       </c>
       <c r="E8" t="n">
-        <v>14.98</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>297.3</v>
+        <v>323.32</v>
       </c>
       <c r="D9" t="n">
-        <v>375.56</v>
+        <v>376.62</v>
       </c>
       <c r="E9" t="n">
-        <v>10.704</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.14</v>
+        <v>239.82</v>
       </c>
       <c r="D10" t="n">
-        <v>332.74</v>
+        <v>299.14</v>
       </c>
       <c r="E10" t="n">
-        <v>8.055999999999999</v>
+        <v>6.936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>347.74</v>
+        <v>235.44</v>
       </c>
       <c r="D11" t="n">
-        <v>399.18</v>
+        <v>287.92</v>
       </c>
       <c r="E11" t="n">
-        <v>4.532</v>
+        <v>11.368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>399.18</v>
+        <v>374.8</v>
       </c>
       <c r="D12" t="n">
-        <v>462.48</v>
+        <v>443.46</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8120000000000001</v>
+        <v>6.484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>462.48</v>
+        <v>299.14</v>
       </c>
       <c r="D13" t="n">
-        <v>527.86</v>
+        <v>376.86</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>3.764</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>375.56</v>
+        <v>376.62</v>
       </c>
       <c r="D14" t="n">
-        <v>433.06</v>
+        <v>450.32</v>
       </c>
       <c r="E14" t="n">
-        <v>7.064</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>265.4</v>
+        <v>450.32</v>
       </c>
       <c r="D15" t="n">
-        <v>337.8</v>
+        <v>534.9</v>
       </c>
       <c r="E15" t="n">
-        <v>10.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>337.8</v>
+        <v>534.9</v>
       </c>
       <c r="D16" t="n">
-        <v>393.28</v>
+        <v>617.1</v>
       </c>
       <c r="E16" t="n">
-        <v>7.412</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="17">
@@ -751,60 +751,60 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>527.86</v>
+        <v>282.24</v>
       </c>
       <c r="D17" t="n">
-        <v>571.48</v>
+        <v>332</v>
       </c>
       <c r="E17" t="n">
-        <v>26.828</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>571.48</v>
+        <v>443.46</v>
       </c>
       <c r="D18" t="n">
-        <v>633.98</v>
+        <v>499.44</v>
       </c>
       <c r="E18" t="n">
-        <v>24.188</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>289.48</v>
+        <v>332</v>
       </c>
       <c r="D19" t="n">
-        <v>334.8</v>
+        <v>377.68</v>
       </c>
       <c r="E19" t="n">
-        <v>9.800000000000001</v>
+        <v>7.092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,51 +812,51 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>393.28</v>
+        <v>307.34</v>
       </c>
       <c r="D20" t="n">
-        <v>459.78</v>
+        <v>368.74</v>
       </c>
       <c r="E20" t="n">
-        <v>3.392</v>
+        <v>9.856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433.06</v>
+        <v>377.68</v>
       </c>
       <c r="D21" t="n">
-        <v>484.04</v>
+        <v>457.68</v>
       </c>
       <c r="E21" t="n">
-        <v>4.096</v>
+        <v>2.712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>299.08</v>
+        <v>457.68</v>
       </c>
       <c r="D22" t="n">
-        <v>342.42</v>
+        <v>529.0599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>10.048</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -865,117 +865,117 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>633.98</v>
+        <v>529.0599999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>694.08</v>
+        <v>583.02</v>
       </c>
       <c r="E23" t="n">
-        <v>21.788</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>694.08</v>
+        <v>368.74</v>
       </c>
       <c r="D24" t="n">
-        <v>733.46</v>
+        <v>406.38</v>
       </c>
       <c r="E24" t="n">
-        <v>18.98</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>484.04</v>
+        <v>287.92</v>
       </c>
       <c r="D25" t="n">
-        <v>562.45</v>
+        <v>331.42</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>8.648</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>562.45</v>
+        <v>406.38</v>
       </c>
       <c r="D26" t="n">
-        <v>631.65</v>
+        <v>452.24</v>
       </c>
       <c r="E26" t="n">
-        <v>25.74</v>
+        <v>3.276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>342.42</v>
+        <v>331.42</v>
       </c>
       <c r="D27" t="n">
-        <v>394.52</v>
+        <v>402.42</v>
       </c>
       <c r="E27" t="n">
-        <v>5.968</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>459.78</v>
+        <v>499.44</v>
       </c>
       <c r="D28" t="n">
-        <v>526.64</v>
+        <v>538.9</v>
       </c>
       <c r="E28" t="n">
-        <v>0.796</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>526.64</v>
+        <v>538.9</v>
       </c>
       <c r="D29" t="n">
-        <v>597.05</v>
+        <v>619.2</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -998,264 +998,264 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>631.65</v>
+        <v>617.1</v>
       </c>
       <c r="D30" t="n">
-        <v>685.15</v>
+        <v>687.42</v>
       </c>
       <c r="E30" t="n">
-        <v>23.5</v>
+        <v>24.008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>597.05</v>
+        <v>583.02</v>
       </c>
       <c r="D31" t="n">
-        <v>653.61</v>
+        <v>635.42</v>
       </c>
       <c r="E31" t="n">
-        <v>27.024</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>334.8</v>
+        <v>376.86</v>
       </c>
       <c r="D32" t="n">
-        <v>414.22</v>
+        <v>431.52</v>
       </c>
       <c r="E32" t="n">
-        <v>5.488</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>653.61</v>
+        <v>431.52</v>
       </c>
       <c r="D33" t="n">
-        <v>719.85</v>
+        <v>530.14</v>
       </c>
       <c r="E33" t="n">
-        <v>23.54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>685.15</v>
+        <v>452.24</v>
       </c>
       <c r="D34" t="n">
-        <v>736.63</v>
+        <v>532.29</v>
       </c>
       <c r="E34" t="n">
-        <v>19.972</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>414.22</v>
+        <v>532.29</v>
       </c>
       <c r="D35" t="n">
-        <v>493.92</v>
+        <v>578.09</v>
       </c>
       <c r="E35" t="n">
-        <v>1.108</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>493.92</v>
+        <v>635.42</v>
       </c>
       <c r="D36" t="n">
-        <v>558.7</v>
+        <v>693.66</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>736.63</v>
+        <v>619.2</v>
       </c>
       <c r="D37" t="n">
-        <v>778.73</v>
+        <v>685.54</v>
       </c>
       <c r="E37" t="n">
-        <v>16.892</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>733.46</v>
+        <v>402.42</v>
       </c>
       <c r="D38" t="n">
-        <v>786.5</v>
+        <v>452.62</v>
       </c>
       <c r="E38" t="n">
-        <v>16.276</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>332.74</v>
+        <v>452.62</v>
       </c>
       <c r="D39" t="n">
-        <v>385.18</v>
+        <v>551.42</v>
       </c>
       <c r="E39" t="n">
-        <v>4.932</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>394.52</v>
+        <v>693.66</v>
       </c>
       <c r="D40" t="n">
-        <v>464.12</v>
+        <v>747.74</v>
       </c>
       <c r="E40" t="n">
-        <v>2.588</v>
+        <v>18.152</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>385.18</v>
+        <v>578.09</v>
       </c>
       <c r="D41" t="n">
-        <v>438.38</v>
+        <v>650.83</v>
       </c>
       <c r="E41" t="n">
-        <v>2.212</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>464.12</v>
+        <v>687.42</v>
       </c>
       <c r="D42" t="n">
-        <v>548.6799999999999</v>
+        <v>750.5599999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.212</v>
+        <v>21.304</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>548.6799999999999</v>
+        <v>530.14</v>
       </c>
       <c r="D43" t="n">
-        <v>654.66</v>
+        <v>591.8</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>26.024</v>
       </c>
     </row>
   </sheetData>
